--- a/Narrative.xlsx
+++ b/Narrative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\vw-corona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{045AA3D6-E3E5-43A4-A419-8B65D4FC6905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014DBF0D-F069-43D7-AFF4-4299CDB91EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="375">
   <si>
     <t>Taxa</t>
   </si>
@@ -34,6 +34,12 @@
     <t>Beschreibung</t>
   </si>
   <si>
+    <t>übergeordnetes Thema</t>
+  </si>
+  <si>
+    <t>assoziierte Gruppe</t>
+  </si>
+  <si>
     <t>Coronabezug</t>
   </si>
   <si>
@@ -46,9 +52,6 @@
     <t>ja</t>
   </si>
   <si>
-    <t>Basis für diverse VTs</t>
-  </si>
-  <si>
     <t>Corona wird verharmlost</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>Einnahme oder Injektion von Bleich- oder Desinfektionsmitteln (Chlordioxid, CDL, CDS, MMS usw.) tötet Virus im Körper ab</t>
   </si>
   <si>
+    <t>alternative Medizin, Antipharma</t>
+  </si>
+  <si>
     <t>MMS wurde schon vor der Pandemie als Wundermittel vertrieben</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>Sammlung diverser Narrative, die für sich allein vmtl. zu selten vorkommen</t>
   </si>
   <si>
+    <t>Esoteriker</t>
+  </si>
+  <si>
     <t>Fremde als Pandemietreiber</t>
   </si>
   <si>
@@ -97,12 +106,18 @@
     <t>für die Impfstoffherstellung werden menschliche Embryonen benutzt</t>
   </si>
   <si>
+    <t>Impfgegner</t>
+  </si>
+  <si>
     <t>Versuchskaninchen</t>
   </si>
   <si>
     <t>Die Impfung ist nicht genügend getestet / nicht sicher</t>
   </si>
   <si>
+    <t>Impfskeptiker</t>
+  </si>
+  <si>
     <t>Impfung ist schädlich</t>
   </si>
   <si>
@@ -118,12 +133,18 @@
     <t>Kontakt mit Geimpften führt zu Krankheit oder Unfruchtbarkeit bei Ungeimpften</t>
   </si>
   <si>
+    <t>Impfskepsis, Überbevölkerung</t>
+  </si>
+  <si>
     <t>Zwangsimpfung</t>
   </si>
   <si>
     <t>Bevölkerung soll zur Impfung gezwungen werden</t>
   </si>
   <si>
+    <t>Impfskepsis</t>
+  </si>
+  <si>
     <t>i.d.R. im Verbund mit weiteren Narrativen, etwa zum 'wahren' Zweck der Impfung</t>
   </si>
   <si>
@@ -175,21 +196,15 @@
     <t>Pandemie dient einer Nation dazu, eine oder mehrere andere Nationen zu destabilisieren oder anzugreifen</t>
   </si>
   <si>
+    <t>Rechte</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kontrolle </t>
   </si>
   <si>
-    <t>Pandemie / Lockdown dient der Kontrolle / Überwachung der Bevölkerung durch Regierung</t>
-  </si>
-  <si>
     <t>Ablenkung</t>
   </si>
   <si>
-    <t>Great Reset / WEF</t>
-  </si>
-  <si>
-    <t>Pandemie dient der Erlangung politischer / wirtschaftlicher Weltkontrolle / Antikommunismus</t>
-  </si>
-  <si>
     <t>diverse Varianten zu Hintermännern</t>
   </si>
   <si>
@@ -208,9 +223,6 @@
     <t>i.d.R. im Verbund mit weiteren Narrativen</t>
   </si>
   <si>
-    <t>Akteure</t>
-  </si>
-  <si>
     <t xml:space="preserve">NWO / Weltregierung / Globalisten </t>
   </si>
   <si>
@@ -226,9 +238,6 @@
     <t>Systemmedien</t>
   </si>
   <si>
-    <t>Ziele / Methoden</t>
-  </si>
-  <si>
     <t>Anti-Christentum</t>
   </si>
   <si>
@@ -250,9 +259,6 @@
     <t>Ziel ist Enteignung/Verstaatlichung/Kommunismus</t>
   </si>
   <si>
-    <t>Deutschland GmbH</t>
-  </si>
-  <si>
     <t>Deutschland ist kein souveräner Staat, allgemeines Reichsbürgertum</t>
   </si>
   <si>
@@ -313,6 +319,9 @@
     <t>Geschichtsrevisionismus (WW2 war anders), BLM kostet viele Leben,  da und da töten oder vergewaltigen Schwarze / AntiAntifa</t>
   </si>
   <si>
+    <t>GMF</t>
+  </si>
+  <si>
     <t>Morgellons (schwarze Fäden in Maskenstoff oder Teststäbchen); auch: Beatmungsgeräte töten, nicht das Virus</t>
   </si>
   <si>
@@ -323,9 +332,6 @@
   </si>
   <si>
     <t>Bargeld soll abgeschafft werden</t>
-  </si>
-  <si>
-    <t>oft verbunden mit "Great Reset"</t>
   </si>
   <si>
     <t>Große Weltereignisse seit dem 2. WK bis heute sind auf die Machenschaften geheimer Gruppen zurückzuführen</t>
@@ -385,9 +391,6 @@
     <t>eine dunkle Gruppe benutzt Technologie, um die Gedanken der Menschen zu kontrollieren / Matrix / Überwachung</t>
   </si>
   <si>
-    <t>kritische Stimmen werden unterdrückt / unsichtbar gemacht</t>
-  </si>
-  <si>
     <t>die großen Medienhäuser werden komplett von einer Gruppe kontrolliert</t>
   </si>
   <si>
@@ -397,12 +400,6 @@
     <t>illegitime Machtstrukturen innerhalb des Staates (Staat im Staate)</t>
   </si>
   <si>
-    <t>sehr altes Narrativ, geht mind. bis ins 18. Jahrhundert zurück (Illuminaten haben den bayerischen Staat unterwandert)</t>
-  </si>
-  <si>
-    <t>eng verwandt mit "Great Reset / WEF"</t>
-  </si>
-  <si>
     <t>eine dunkle Gruppe (Regierungs-und Wirtschaftseliten) plant den Umsturz der momentanen Verhältnisse &amp; totalitäre Weltregierung</t>
   </si>
   <si>
@@ -554,9 +551,6 @@
   </si>
   <si>
     <t>Gegenmittel</t>
-  </si>
-  <si>
-    <t>Ursprung</t>
   </si>
   <si>
     <t xml:space="preserve">Ziel der Pandemie / Maßnahmen </t>
@@ -721,6 +715,9 @@
     <t>Allgemein bekannt ist, dass jede mRNA in der Zelle abgebaut wird, und ihre Bestandteile für den Einbau in das menschliche Genom genutzt werden. Was aber geschieht nun mit den relativ großen Mengen an Methyl-Pseudouridin in der modifizierten mRNA, wenn sie abgebaut und in deren Bestandteile in das menschliche Genom eingefügt worden sind?
 Methyl-Pseudouridin enthält ein „frei gewordenes Stickstoffatom“ welches zusätzliche Wasserstoffbrücken hin zu Wasser ausbilden kann. Mit anderen Worten es ist hydrophil, hat an dieser Stelle des menschlichen Genoms einen veränderten pH-Wert und zieht daher hier Raktionswasser an, wodurch das menschliche Genom chemisch gesehen „löchrig“ wird, hinsichtlich möglicher Veränderungen im Aufbau des Genoms. Zieht man auch noch die bisher für Genetiker „rätselhafte“ Epigenetik und die Auswirkungen darauf in Betracht, so ist völlig unklar, welche Folgen die „Gen-Injektion“ nach der "Resteverwertung" haben wird. Der Mensch könnte durch die Gen-Injektion in vielerlei Hinsicht mittelfristig bis langfristig mutieren.
 Diese wasserhaltigen „Lochstellen“ im Genom des Menschen aufgrund des Einbaues von Methyl-Pseudouridin sehen wir als große Gefahr und Unbekannte, die von Pfizer/ Biontech nicht untersucht wurde, da allein die schnelle großtechnische Produktion und Vermarktung ihres Produktes für sie ausschlaggebend war!</t>
+  </si>
+  <si>
+    <t>Maßnahmenkritik, Institutionsskepsis, Impfskepsis</t>
   </si>
   <si>
     <t>Die Zionisten wie Rothschild stecken hinter der Weltbank und UN, die Weltbank steckt hinter dem digitalen Identitätsprogramm ID4D/ID2020, und Corona ist ein trojanisches Pferd um ID4D weltweit zu etablieren! Wir sollen gechippt werden wie Schafe in der Massentierhaltung! Die einen bekommen nur Nano-Chips durch die Impfung, die anderen werden sterilisiert, wieder andere bekommen ne TODESSPRITZE! Für Zionisten sind wir wertlose Materie denn sie sind angeblich das "auserwählte Volk" deshalb ist es nach ihrer Logik auch alles völlig ok mit dem geplanten Völkermord!</t>
@@ -1136,12 +1133,249 @@
   <si>
     <t>Heute Morgen fielen einige wichtige Neuigkeiten bezüglich der Sicherheit der Wahlen im Jahr 2020 in Arizona. Laut Rechtsanwalt Matt DePerno gab es am 3. November 2020 (Wahltag) eine Sicherheitslücke der Registrierungsserver in Arizona. Dieser Verstoß war Außenministerin Katie Hobbs bekannt, aber bis heute hielt sie ihn vor der Öffentlichkeit. Der Aufsichtsrat von Maricopa County wusste auch davon, hielt es aber geheim.</t>
   </si>
+  <si>
+    <t>Ursprung / Verbreitung</t>
+  </si>
+  <si>
+    <t>Allgemeine VTs</t>
+  </si>
+  <si>
+    <t>Rechte VTs</t>
+  </si>
+  <si>
+    <t>Staat als Gegner</t>
+  </si>
+  <si>
+    <t>Indoktrination</t>
+  </si>
+  <si>
+    <t>Pseudowissenschaft</t>
+  </si>
+  <si>
+    <t>BRD GmbH</t>
+  </si>
+  <si>
+    <t>Rechte/Rechtskonservative</t>
+  </si>
+  <si>
+    <t>Rechte, QAnon</t>
+  </si>
+  <si>
+    <t>QAnon, Evangelikale</t>
+  </si>
+  <si>
+    <t>kritische Stimmen werden unterdrückt / unsichtbar gemacht; wirklich freie Meinungsäußerung ist nicht mehr möglich</t>
+  </si>
+  <si>
+    <t>eng verwandt mit "Great Reset"</t>
+  </si>
+  <si>
+    <t>oft verbunden mit "Great Reset" oder "NWO"</t>
+  </si>
+  <si>
+    <t>Great Reset</t>
+  </si>
+  <si>
+    <t>Pandemie dient der Erlangung politischer/wirtschaftlicher Weltkontrolle durch globale Finanzeliten, vertreten u.a. durch das Weltwirtschaftsforum und Klaus Schwab; Bevölkerung soll enteignet und kontrolliert, die Gesellschaft nach kommunistischem Vorbild umstrukturiert werden</t>
+  </si>
+  <si>
+    <t>Akteure</t>
+  </si>
+  <si>
+    <t>Wiehler, Spahn, Lauterbach, Drosten, Massenmedien</t>
+  </si>
+  <si>
+    <t>Fauci, Wiehler, Spahn, Lauterbach, Drosten</t>
+  </si>
+  <si>
+    <t>Spahn</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>Fauci</t>
+  </si>
+  <si>
+    <t>Gates</t>
+  </si>
+  <si>
+    <t>Gates, CIA, Soros, Rothschild, Zionisten, Globalisten</t>
+  </si>
+  <si>
+    <t>Greta Thunberg</t>
+  </si>
+  <si>
+    <t>Soros, Rothschild, Zionisten, Globalisten</t>
+  </si>
+  <si>
+    <t>Merkel</t>
+  </si>
+  <si>
+    <t>Klaus Schwab, WEF, Gates, Soros</t>
+  </si>
+  <si>
+    <t>Juden, Zionisten, Globalisten, Soros, Gates, CIA</t>
+  </si>
+  <si>
+    <t>Illuminaten</t>
+  </si>
+  <si>
+    <t>CIA</t>
+  </si>
+  <si>
+    <t>CIA, USA</t>
+  </si>
+  <si>
+    <t>Soros, Rothschild, Zionisten, Gates, Globalisten, Merkel</t>
+  </si>
+  <si>
+    <t>Merkel, Hitler</t>
+  </si>
+  <si>
+    <t>Greta Thunberg, Merkel</t>
+  </si>
+  <si>
+    <t>Massenmedien</t>
+  </si>
+  <si>
+    <t>CIA, USA, FBI</t>
+  </si>
+  <si>
+    <t>Umkehrung des ‚Ungeimpfte sind gefährlich‘-Arguments</t>
+  </si>
+  <si>
+    <t>Merkel, WEF, Klaus Schwab</t>
+  </si>
+  <si>
+    <t>oft in Verbindung mit Indoktrinationsnarrativen</t>
+  </si>
+  <si>
+    <t>generelle Verneinung/Umkehrung wissenschaftlicher Erkenntnisse zum Klimawandel</t>
+  </si>
+  <si>
+    <t>alle großen rechten Diskurse, die nicht gesondert als einzelnes Narrativ gelistet sind; rassistische, islamfeindliche usw. Äußerungen</t>
+  </si>
+  <si>
+    <t>S.H.A.E.F. ist eine Verbindung aus Reichsbürgertum und QAnon</t>
+  </si>
+  <si>
+    <t>zentrales Narrativ der Identitären Bewegung</t>
+  </si>
+  <si>
+    <t>In der Variante "Viren gibt es nicht" unter Impfgegnern verbreitet</t>
+  </si>
+  <si>
+    <t>Klassiker: MKUltra</t>
+  </si>
+  <si>
+    <t>kommt auch in Verbindung mit Deep-State-Narrativen vor, wenn etwa Illuminaten und CIA eine gemeinsame Sache unterstellt wird</t>
+  </si>
+  <si>
+    <t>eine Art Adaption des NWO-Narrativs für die Corona-Pandemie</t>
+  </si>
+  <si>
+    <t>oft als Teilaspekt von "Great Reset"</t>
+  </si>
+  <si>
+    <t>sehr altes Narrativ, geht mind. bis ins 18. Jahrhundert zurück (Illuminaten haben den bayerischen Staat unterwandert); bei QAnon scheint der "Deep State" sogar international zu agieren</t>
+  </si>
+  <si>
+    <t>häufig mit USA-Bezug im QAnon-Umfeld zu finden</t>
+  </si>
+  <si>
+    <t>CIA, USA, China, Ukraine</t>
+  </si>
+  <si>
+    <t>eines der Hauptargumente der "gemäßigteren" Maßnahmengegner</t>
+  </si>
+  <si>
+    <t>oft im Kontext von QAnon, aber auch bei Rechten verbreitet</t>
+  </si>
+  <si>
+    <t>oft im Kontext von QAnon und Überbevölkerungsreduktionsnarrativen</t>
+  </si>
+  <si>
+    <t>oft in Verbindung mit "Demokratur" oder "Diskriminierung"</t>
+  </si>
+  <si>
+    <t>coronaspezifisch; bei genereller Leugnung der Existenz von Virenz "Medischwurbel"</t>
+  </si>
+  <si>
+    <t>oft im Vergleich zu anderen Krankheiten (insb. Grippe) und in Verbund mit "Pseudopandemie", wenn zur Beweisführung angeführt wird, dass Zahlen nicht stimmen</t>
+  </si>
+  <si>
+    <t>Impfgegner, QAnon, Katholiken/Evangelikale</t>
+  </si>
+  <si>
+    <t>sehr weites Spektrum rund um "Q" und "Q-Drops", oft erkennbar am Slogan der Bewegung ("wwg1wga": "where we go one, we go all"); zentrale Narrative um Trump als Heilsbringer und "pädophile demokratische Eliten"; konkrete Einzelnarrative separat: Staat im Staate ("Deep State"), Kindesmissbrauch ("Kinder-/Frauenschädigung"), satanistische Eliten ("Anti-Christentum") und "Millenarismus"</t>
+  </si>
+  <si>
+    <t>Institutionsskepsis</t>
+  </si>
+  <si>
+    <t>Pandemie/Lockdown dient der Kontrolle/Überwachung der Bevölkerung durch Regierung</t>
+  </si>
+  <si>
+    <t>Kontrolle (allgemein)</t>
+  </si>
+  <si>
+    <t>Kontrolle (allgemein), Institutionsskepsis</t>
+  </si>
+  <si>
+    <t>Kontrolle (allgemein), Institutionsskepsis, Lügenpresse</t>
+  </si>
+  <si>
+    <t>Massenvernichtung, GMF</t>
+  </si>
+  <si>
+    <t>Kontrolle (allgemein), Massenvernichtung, Institutionsskepsis</t>
+  </si>
+  <si>
+    <t>BioNTech, Big Pharma, Spahn</t>
+  </si>
+  <si>
+    <t>BioNTech, Spahn, Gates</t>
+  </si>
+  <si>
+    <t>Plandemie, Institutionsskepsis</t>
+  </si>
+  <si>
+    <t>Plandemie, Klimageschwurbel, Institutionsskepsis</t>
+  </si>
+  <si>
+    <t>Plandemie, Profit, Antipharma</t>
+  </si>
+  <si>
+    <t>Plandemie, GMF</t>
+  </si>
+  <si>
+    <t>Plandemie, Massenvernichtung, Konflikt</t>
+  </si>
+  <si>
+    <t>Plandemie, Kontrolle (allgemein)</t>
+  </si>
+  <si>
+    <t>Plandemie, Kontrolle</t>
+  </si>
+  <si>
+    <t>Plandemie, Überbevölkerung, Massenvernichtung</t>
+  </si>
+  <si>
+    <t>Plandemie, Überbevölkerung, Kontrolle</t>
+  </si>
+  <si>
+    <t>Maßnahmenkritik</t>
+  </si>
+  <si>
+    <t>Maßnahmenkritik, Massenvernichtung</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1180,8 +1414,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1191,90 +1436,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="20"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color rgb="FFFFE061"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FFD7E110"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="23"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color rgb="FF9CE159"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FF79AE3D"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color rgb="FF63B2DE"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FF165778"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1291,13 +1452,235 @@
       </patternFill>
     </fill>
     <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFFFEA8F"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFD7FF10"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFD7FF10"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF6FD3C7"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF6FD3C7"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF1A678E"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFFFEA8F"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFF58F"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFFFF58F"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFFF8F"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFFFFF8F"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFBFE90"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFFBFE90"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFF9FD51"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFF9FD51"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFEAFC3A"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFEAFC3A"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFEBFF29"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFEBFF29"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFD7FF10"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF6FD3C7"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF46A0BE"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF46A0BE"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF3282A5"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF3282A5"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF1A678E"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF1A678E"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF0E394E"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF1A678E"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF196286"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF196286"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF185D7E"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF185D7E"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF175876"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF175876"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF16536E"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF16536E"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF124860"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF124860"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF103F56"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FF103F56"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF0E394E"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1306,92 +1689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -1441,80 +1738,6 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1648,193 +1871,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1864,14 +1900,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1886,7 +1922,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1903,20 +1939,148 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -1924,18 +2088,148 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1944,363 +2238,388 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="27" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="27" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="27" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="28" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="16" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="16" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="15" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2375,6 +2694,18 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF0E394E"/>
+      <color rgb="FF103F56"/>
+      <color rgb="FF124860"/>
+      <color rgb="FF16536E"/>
+      <color rgb="FF175876"/>
+      <color rgb="FF185D7E"/>
+      <color rgb="FF196286"/>
+      <color rgb="FF1A678E"/>
+      <color rgb="FF3282A5"/>
+      <color rgb="FF46A0BE"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3494,1392 +3825,1864 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IR64"/>
+  <dimension ref="A1:IT64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="12" customWidth="1"/>
-    <col min="9" max="252" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1"/>
+    <col min="11" max="11" width="16.33203125" style="2" customWidth="1"/>
+    <col min="12" max="254" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="390.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="G2" s="84" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="74"/>
+      <c r="I2" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="97"/>
+      <c r="B3" s="110" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="97"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" s="76"/>
+      <c r="I5" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="97"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" s="77"/>
+      <c r="I6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="97"/>
+      <c r="B7" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="97"/>
+      <c r="B8" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="H8" s="75"/>
+      <c r="I8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="97"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="H9" s="75"/>
+      <c r="I9" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="H10" s="76"/>
+      <c r="I10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="97"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="H11" s="78"/>
+      <c r="I11" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="97"/>
+      <c r="B12" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C12" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="J12" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="97"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="33"/>
+      <c r="K13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="76"/>
+      <c r="I14" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="97"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="H15" s="78"/>
+      <c r="I15" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="97"/>
+      <c r="B16" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="97"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="36"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="97"/>
+      <c r="B18" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="93"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="97"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="97"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="97"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="97"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="97"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="97"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="98"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="101"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="76"/>
+      <c r="I27" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="101"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="87" t="s">
+        <v>364</v>
+      </c>
+      <c r="H28" s="76"/>
+      <c r="I28" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="101"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="H29" s="76"/>
+      <c r="I29" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="101"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="H30" s="76"/>
+      <c r="I30" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="101"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="101"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="101"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="101"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="H34" s="76"/>
+      <c r="I34" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="101"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" s="87" t="s">
+        <v>364</v>
+      </c>
+      <c r="H35" s="76"/>
+      <c r="I35" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="35"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="101"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="H36" s="76"/>
+      <c r="I36" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="101"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="H37" s="76"/>
+      <c r="I37" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="33"/>
+      <c r="K37" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="101"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="H38" s="76"/>
+      <c r="I38" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="101"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="120" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="115" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="H40" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="121"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="121"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="121"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="54" t="s">
+      <c r="E43" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="38"/>
+      <c r="K43" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="195" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="330" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:8" ht="405" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="345.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="25" t="s">
+    <row r="44" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="121"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="121"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="F45" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="121"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="95" t="s">
+        <v>333</v>
+      </c>
+      <c r="K46" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="121"/>
+      <c r="B47" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="I47" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="37"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="121"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="38"/>
+      <c r="K48" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="121"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="91" t="s">
+        <v>291</v>
+      </c>
+      <c r="F49" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="G49" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="39"/>
+      <c r="K49" s="23"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="121"/>
+      <c r="B50" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J50" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="121"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="70" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="I51" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J51" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="40"/>
+      <c r="K52" s="27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="123"/>
+      <c r="B53" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="I53" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="123"/>
+      <c r="B54" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="123"/>
+      <c r="B55" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="F55" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I55" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J55" s="40"/>
+      <c r="K55" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="123"/>
+      <c r="B56" s="124" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" s="37"/>
+      <c r="K56" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="123"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="G57" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="H57" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J57" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="K57" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="123"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K58" s="25"/>
+    </row>
+    <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="123"/>
+      <c r="B59" s="124"/>
+      <c r="C59" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="66"/>
-    </row>
-    <row r="7" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="68" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="225" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="70"/>
-    </row>
-    <row r="9" spans="1:8" ht="375" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="72"/>
-    </row>
-    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="32" t="s">
+      <c r="E59" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" s="39"/>
+      <c r="K59" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="123"/>
+      <c r="B60" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J60" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="K60" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="123"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="G61" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="H61" s="83"/>
+      <c r="I61" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="K61" s="25"/>
+    </row>
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="123"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="J62" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K62" s="26"/>
+    </row>
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="123"/>
+      <c r="B63" s="126" t="s">
+        <v>301</v>
+      </c>
+      <c r="C63" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="73"/>
-    </row>
-    <row r="11" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="77"/>
-    </row>
-    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="315" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="72" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="210" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="77"/>
-    </row>
-    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="81" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="86" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="88"/>
-    </row>
-    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="79" t="s">
+      <c r="E63" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>198</v>
-      </c>
-      <c r="G18" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="86"/>
-    </row>
-    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="72"/>
-    </row>
-    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="32" t="s">
+      <c r="I63" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="37"/>
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="123"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="73"/>
-    </row>
-    <row r="21" spans="1:8" ht="390" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="73" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" ht="315" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="72" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="375.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="98" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="E26" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="G26" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="83" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="73"/>
-    </row>
-    <row r="28" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="73"/>
-    </row>
-    <row r="29" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G29" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="73"/>
-    </row>
-    <row r="30" spans="1:8" ht="270.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="73"/>
-    </row>
-    <row r="31" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G31" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="73"/>
-    </row>
-    <row r="32" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="72"/>
-    </row>
-    <row r="33" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G33" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="73"/>
-    </row>
-    <row r="34" spans="1:8" ht="390.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="73"/>
-    </row>
-    <row r="35" spans="1:8" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G35" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="73"/>
-    </row>
-    <row r="36" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G36" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="73"/>
-    </row>
-    <row r="37" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="102" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="225.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="103" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>242</v>
-      </c>
-      <c r="F39" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="G39" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="105" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="109" t="s">
-        <v>252</v>
-      </c>
-      <c r="B40" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="300.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="110"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="20"/>
-    </row>
-    <row r="43" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="110"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="110"/>
-      <c r="B44" s="106" t="s">
+      <c r="I64" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="110"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="110"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="110"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:8" ht="390" x14ac:dyDescent="0.2">
-      <c r="A48" s="110"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="110"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="20"/>
-    </row>
-    <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="110"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H50" s="20"/>
-    </row>
-    <row r="51" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="110"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H51" s="20"/>
-    </row>
-    <row r="52" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="110"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="110"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H53" s="20"/>
-    </row>
-    <row r="54" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="111"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="375" x14ac:dyDescent="0.2">
-      <c r="A55" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="113"/>
-      <c r="C55" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="19"/>
-    </row>
-    <row r="56" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="114"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H56" s="20"/>
-    </row>
-    <row r="57" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="114"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H57" s="20"/>
-    </row>
-    <row r="58" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="114"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="20"/>
-    </row>
-    <row r="59" spans="1:8" ht="375" x14ac:dyDescent="0.2">
-      <c r="A59" s="114"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="114"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="1:8" ht="195" x14ac:dyDescent="0.2">
-      <c r="A61" s="114"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H61" s="20"/>
-    </row>
-    <row r="62" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="114"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="114"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H63" s="20"/>
-    </row>
-    <row r="64" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="116"/>
-      <c r="B64" s="117"/>
-      <c r="C64" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>111</v>
+      <c r="J64" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B54"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:B64"/>
+  <mergeCells count="16">
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="A52:A64"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A26:A39"/>

--- a/Narrative.xlsx
+++ b/Narrative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\vw-corona\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\infodemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014DBF0D-F069-43D7-AFF4-4299CDB91EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA8344E-3422-47C9-87C0-2A0EE833B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Sonstiges</t>
   </si>
   <si>
-    <t>Corona ist nicht schlimmer als eine gewöhnliche Grippe</t>
-  </si>
-  <si>
     <t>ja</t>
   </si>
   <si>
@@ -64,18 +61,12 @@
     <t>Pseudoexperten</t>
   </si>
   <si>
-    <t>Maßnahmen</t>
-  </si>
-  <si>
     <t>Maßnahmen illegal</t>
   </si>
   <si>
     <t>Bleich- und Desinfektionsmittel</t>
   </si>
   <si>
-    <t>Einnahme oder Injektion von Bleich- oder Desinfektionsmitteln (Chlordioxid, CDL, CDS, MMS usw.) tötet Virus im Körper ab</t>
-  </si>
-  <si>
     <t>alternative Medizin, Antipharma</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>umfunktionierte Medikamente</t>
   </si>
   <si>
-    <t>Chloroquin/Hydroxychloroquin und Azithromycin helfen gegen COVID-19; ebenso Ivermectin</t>
-  </si>
-  <si>
     <t>Sammlung diverser Narrative, die für sich allein vmtl. zu selten vorkommen</t>
   </si>
   <si>
@@ -97,51 +85,33 @@
     <t>Fremde als Pandemietreiber</t>
   </si>
   <si>
-    <t>Ausländer/Migranten/Asylbewerber/Muslime sind Pandemietreiber; wahlweise auch Chinesen oder Sinti und Roma</t>
-  </si>
-  <si>
     <t>abgetriebene Embryonen für Impfstoffherstellung</t>
   </si>
   <si>
-    <t>für die Impfstoffherstellung werden menschliche Embryonen benutzt</t>
-  </si>
-  <si>
     <t>Impfgegner</t>
   </si>
   <si>
     <t>Versuchskaninchen</t>
   </si>
   <si>
-    <t>Die Impfung ist nicht genügend getestet / nicht sicher</t>
-  </si>
-  <si>
     <t>Impfskeptiker</t>
   </si>
   <si>
     <t>Impfung ist schädlich</t>
   </si>
   <si>
-    <t>Impfung zerstört Immunsystem, Lungengewebe, führt zu Autoimmunerkrankungen oder wirkt sich anderweitig extrem schädlich aus (bis zum Tod)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tests / Masken sind gefährlich </t>
   </si>
   <si>
     <t>Shedding</t>
   </si>
   <si>
-    <t>Kontakt mit Geimpften führt zu Krankheit oder Unfruchtbarkeit bei Ungeimpften</t>
-  </si>
-  <si>
     <t>Impfskepsis, Überbevölkerung</t>
   </si>
   <si>
     <t>Zwangsimpfung</t>
   </si>
   <si>
-    <t>Bevölkerung soll zur Impfung gezwungen werden</t>
-  </si>
-  <si>
     <t>Impfskepsis</t>
   </si>
   <si>
@@ -151,15 +121,9 @@
     <t>5G</t>
   </si>
   <si>
-    <t>Strahlung des neuen 5G-Netzes schädigt menschliche Zellen und macht sie anfälliger für COVID-19; auch: Pandemie zur Vertuschung eigentlicher 5G-Schäden</t>
-  </si>
-  <si>
     <t>Genveränderung</t>
   </si>
   <si>
-    <t>mRNA-Impfstoffe verändern das menschliche Erbgut</t>
-  </si>
-  <si>
     <t>oft verbunden mit vermuteten Zielen</t>
   </si>
   <si>
@@ -169,9 +133,6 @@
     <t>Wirtschaftsschädigung</t>
   </si>
   <si>
-    <t xml:space="preserve">Pandemie dient dazu, der deutschen Wirtschaft / Unternehmern zu schaden </t>
-  </si>
-  <si>
     <t>Klimalockdown</t>
   </si>
   <si>
@@ -181,21 +142,12 @@
     <t>Juden als Drahtzieher</t>
   </si>
   <si>
-    <t>Israel oder "die Juden" stecken hinter der Pandemie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Biowaffe </t>
   </si>
   <si>
-    <t>Corona / Impfung ist eine Biowaffe und absichtlich eingesetzt</t>
-  </si>
-  <si>
     <t>Konflikt</t>
   </si>
   <si>
-    <t>Pandemie dient einer Nation dazu, eine oder mehrere andere Nationen zu destabilisieren oder anzugreifen</t>
-  </si>
-  <si>
     <t>Rechte</t>
   </si>
   <si>
@@ -217,15 +169,9 @@
     <t>Gates als Drahtzieher</t>
   </si>
   <si>
-    <t>Bill Gates steckt hinter der Pandemie; Bill Gates kontrolliert die WHO</t>
-  </si>
-  <si>
     <t>i.d.R. im Verbund mit weiteren Narrativen</t>
   </si>
   <si>
-    <t xml:space="preserve">NWO / Weltregierung / Globalisten </t>
-  </si>
-  <si>
     <t>nein</t>
   </si>
   <si>
@@ -241,9 +187,6 @@
     <t>Anti-Christentum</t>
   </si>
   <si>
-    <t>Kinder werden von der Elite entführt und sexuell ausgebeutet; internationaler Kinderhändlerring unter Beteiligung div. Prominenter und Organisationen</t>
-  </si>
-  <si>
     <t>Meinungsdiktatur</t>
   </si>
   <si>
@@ -256,12 +199,6 @@
     <t>Enteignung</t>
   </si>
   <si>
-    <t>Ziel ist Enteignung/Verstaatlichung/Kommunismus</t>
-  </si>
-  <si>
-    <t>Deutschland ist kein souveräner Staat, allgemeines Reichsbürgertum</t>
-  </si>
-  <si>
     <t>Großer Austausch</t>
   </si>
   <si>
@@ -292,135 +229,39 @@
     <t>QAnon</t>
   </si>
   <si>
-    <t>vermischte QAnon-Narrative</t>
-  </si>
-  <si>
-    <t>Kondensstreifen von Flugzeugen sind in Wirklichkeit absichtlich freigesetzte Chemikalien</t>
-  </si>
-  <si>
-    <t>Pandemie, um von anderen Skandalen oder Vorgängen abzulenken (z.B. Zusammenbruch des Finanzsystems)</t>
-  </si>
-  <si>
-    <t>Corona ist viel gefährlicher, als uns die Regierung weismachen möchte</t>
-  </si>
-  <si>
-    <t>Der Staat operiert ohne gültige Rechtsgrundlage/verfassungswidrig</t>
-  </si>
-  <si>
     <t>Varianten: Biowaffe oder versehentliche Freisetzung</t>
   </si>
   <si>
     <t>Esoterik</t>
   </si>
   <si>
-    <t>Sammelkategorie für allerlei esoterische Vorstellungen (Engel, Channeling, Heilkristalle usw.)</t>
-  </si>
-  <si>
-    <t>Geschichtsrevisionismus (WW2 war anders), BLM kostet viele Leben,  da und da töten oder vergewaltigen Schwarze / AntiAntifa</t>
-  </si>
-  <si>
     <t>GMF</t>
   </si>
   <si>
-    <t>Morgellons (schwarze Fäden in Maskenstoff oder Teststäbchen); auch: Beatmungsgeräte töten, nicht das Virus</t>
-  </si>
-  <si>
     <t>Impfung macht unfruchtbar</t>
   </si>
   <si>
     <t>oft verbunden mit "Großer Austausch" und/oder "Überbevölkerung"</t>
   </si>
   <si>
-    <t>Bargeld soll abgeschafft werden</t>
-  </si>
-  <si>
-    <t>Große Weltereignisse seit dem 2. WK bis heute sind auf die Machenschaften geheimer Gruppen zurückzuführen</t>
-  </si>
-  <si>
     <t>konkrete Ziele variieren (u.a. Überbevölkerung, Kontrolle, Wetterkontrolle)</t>
   </si>
   <si>
-    <r>
-      <t>Anti-CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-Mafia, Greta Thunberg bezahlt, Leugnung des menschengemachten Klimawandels</t>
-    </r>
-  </si>
-  <si>
     <t>besonders zu Beginn der Pandemie verbreitet</t>
   </si>
   <si>
     <t>sonstige Wundermittel</t>
   </si>
   <si>
-    <t>ein Tag X des großen Umsturzes &amp; der »Abrechnung« steht bevor; "der Sturm kommt"</t>
-  </si>
-  <si>
-    <t>die Medien lügen</t>
-  </si>
-  <si>
     <t>"Systemmedien" ist die Steigerungsform</t>
   </si>
   <si>
-    <t>Person oder Gruppe X wird in Wirklichkeit vom System bezahlt/gesteuert</t>
-  </si>
-  <si>
     <t>kann auch andere Schwurbler betreffen, die sich nicht auf eigener Linie befinden</t>
   </si>
   <si>
-    <t>wichtige Stimmen/Entscheidungsträger in der Pandemie (z..B. Drosten, Spahn, Wiehler) sind fachfremd oder inkompetent; akademische Titel werden zu Unrecht geführt</t>
-  </si>
-  <si>
-    <t>eine dunkle Gruppe benutzt Technologie, um die Gedanken der Menschen zu kontrollieren / Matrix / Überwachung</t>
-  </si>
-  <si>
-    <t>die großen Medienhäuser werden komplett von einer Gruppe kontrolliert</t>
-  </si>
-  <si>
-    <t>eine geheime Gruppe lenkt Regierungen</t>
-  </si>
-  <si>
-    <t>illegitime Machtstrukturen innerhalb des Staates (Staat im Staate)</t>
-  </si>
-  <si>
-    <t>eine dunkle Gruppe (Regierungs-und Wirtschaftseliten) plant den Umsturz der momentanen Verhältnisse &amp; totalitäre Weltregierung</t>
-  </si>
-  <si>
-    <t>Pandemie dient der Durchsetzung von Klimaschutzzielen</t>
-  </si>
-  <si>
-    <t>Pandemie dient Unternehmen und mächtigen Personen dazu, Geld zu verdienen</t>
-  </si>
-  <si>
-    <t>dunkle Kräfte schicken nicht-weiße Menschen als Migranten nach Europa, um die weiße/christliche Bevölkerung Europas zu ersetzen/vernichten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demokratische Kräfte sind vom Teufel beeinflusst und/oder arbeiten gegen das Christentum </t>
-  </si>
-  <si>
     <t>Corona gibt es nicht</t>
   </si>
   <si>
-    <t>alternative Heilmittel gegen COVID-19 und/oder klassischer Totimpfstoff werden uns vorenthalten</t>
-  </si>
-  <si>
     <t>wirksame Mittel werden uns vorenthalten</t>
   </si>
   <si>
@@ -430,45 +271,24 @@
     <t>überwiegend</t>
   </si>
   <si>
-    <t>Graphenoxid als schädlicher Zusatzstoff in Impfstoffen oder anderswo (z.B. Kaffeepulver); magnetisch</t>
-  </si>
-  <si>
     <t>Graphenoxid / Impfung macht magnetisch</t>
   </si>
   <si>
     <t>Demokratur</t>
   </si>
   <si>
-    <t>allgemeine Ablehnung grundsätzlicher medizinischer Erkenntnisse, bspw. Existenz von Viren, grundsätzliche Ablehnung von Impfungen</t>
-  </si>
-  <si>
     <t>Gegenmaßnahmen gefährlicher als Virus</t>
   </si>
   <si>
-    <t>unberechtigte Panikmache: Virusverbreitung viel geringer als offiziell angegeben, falsche Infektions- und Totenzahlen, schwedischer Sonderweg ausreichend, Tests irreführend</t>
-  </si>
-  <si>
-    <t>psychische und sonstige Belastungen durch Lockdown, Maskenpflicht, Tests etc. sind gravierender als die Gefahr, die von Corona ausgeht; "Denkt doch mal an die Kinder!"</t>
-  </si>
-  <si>
     <t>Plandemie</t>
   </si>
   <si>
-    <t>eine Diktatur soll errichtet werden oder besteht bereits</t>
-  </si>
-  <si>
     <t>Kinder-/Frauenschädigung</t>
   </si>
   <si>
     <t>Schlafschafe</t>
   </si>
   <si>
-    <t>ein großer Teil der Bevölkerung ist noch unwissend und hat keine Ahnung davon, was "wirklich" vor sich geht; er lässt sich von den Medien blenden und erduldet alles, anstatt sich zu wehren</t>
-  </si>
-  <si>
-    <t>Pandemie und/oder Impfung dient dazu, die Weltbevölkerung zu reduzieren</t>
-  </si>
-  <si>
     <t>Überbevölkerung</t>
   </si>
   <si>
@@ -481,30 +301,15 @@
     <t>i.d.R. Bezug auf amerikanische Präsidentschaftswahl 2020</t>
   </si>
   <si>
-    <t>demokratische Wahlen wurden manipuliert</t>
-  </si>
-  <si>
-    <t>Nebenwirkungen / Gefährlichkeit der Impfung</t>
-  </si>
-  <si>
     <t>Diskriminierung</t>
   </si>
   <si>
-    <t>Menschen, die sich den Maßnahmen widersetzen (keine Masken tragen, sich nicht testen lassen, sich nicht impfen lassen), werden ausgegrenzt und diskriminiert</t>
-  </si>
-  <si>
     <t>False Flag</t>
   </si>
   <si>
     <t>dann annotieren, wenn nicht genauer zuordenbar</t>
   </si>
   <si>
-    <t>Corona stammt aus einem Labor / ist menschengemacht; oft mit Bezug aufs Virologieinstitut in Wuhan</t>
-  </si>
-  <si>
-    <t>selbsterklärend</t>
-  </si>
-  <si>
     <t>Corona ist harmlos</t>
   </si>
   <si>
@@ -544,16 +349,7 @@
     <t>Nach dem Trial-&amp;-Error-Prinzip wurde auf Empfehlung nassforscher Wissenschaftler hin mal eben das gesamte Land heruntergefahren, Schulden für Generationen, Millionen Arbeitslose und Insolvenzen produziert – bloß damit sich ein als Gesundheitsminister tätiger Bankkaufmann dreist hinstellt und achselzuckend erklärt: Sorry, war eigentlich alles gar nicht nötig.</t>
   </si>
   <si>
-    <t>Verharmlosung / Skepsis</t>
-  </si>
-  <si>
     <t>Gefahr</t>
-  </si>
-  <si>
-    <t>Gegenmittel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziel der Pandemie / Maßnahmen </t>
   </si>
   <si>
     <t>Skepsis / Falschinformation</t>
@@ -649,9 +445,6 @@
   </si>
   <si>
     <t>Es gibt eine Behandlung mit einem Medikament, die in Verbindung mit Vitamin D3, Zink und anderen Covid19 zu ca. 90% vorbeugen und heilen soll. Dazu gibt es über 20 internationale Studien. Jedoch werden diese Informationen zensiert. Es entsteht der Anschein, dass nicht die Gesundheit im Vordergrund gewisser Mächte steht, sondern die mediale Panikmache, um ein RNA Massenimpfung durchzusetzen, die Risiken mit sich bringt, die noch nicht vollständig absehbar sind.</t>
-  </si>
-  <si>
-    <t>diverse einfache Mittel helfen gegen COVID-19, u.a. Heißluft, Knoblauch, Zwiebeln, Alkohol, Zistrosenextrakt, Kuhdung, Kuhurin, Räucherstäbchen usw. / COVID-19 lässt sich homöopathisch wirksam behandeln (Nosoden, Globuli, Arsenicum album C30)</t>
   </si>
   <si>
     <t>Der französische Virologe Luc Montagnier, der 2008 den Nobelpreis für die Entdeckung des Humanen Immundefizitvirus (HIV) erhalten hatte, vertritt die Auffassung, dass das neuartige Coronavirus Sars-CoV-2 künstlicher Herkunft ist und in einem Labor entwickelt wurde.
@@ -814,9 +607,6 @@
   </si>
   <si>
     <t>Ganz unabhängig davon macht die Pharmaindustrie Milliardengewinne wie noch nie in ihrer Geschichte. Und im Herbst wird das Eheversprechen von Politik und Pharmaindustrie erneuert. Dann gelten die alten Impfungen als nicht mehr wirksam. Dann wird neu geimpft. Und dann grüßt halbjährlich das Murmeltier.</t>
-  </si>
-  <si>
-    <t>Pharmaindustrie steckt hinter der Pandemie (oder zumindest mit den Drahtziehern unter einer Decke)</t>
   </si>
   <si>
     <t>CIA-Neurobiologie-Experte über die Steuerung des menschlichen Gehirns mittels RNA-Impfstoffen
@@ -874,9 +664,6 @@
 Sie schießen es tatsächlich einfach und millionenfach in die Venen der naiven Dummköpfe. Und ja, die Opfer betteln sogar darum, endlich die Spritze der ultimativen Endlösung injiziert zu bekommen .</t>
   </si>
   <si>
-    <t>mit der Impfung oder über Tests sollen Mikrochips/Nanobots injiziert werden, die der Überwachung und Kontrolle dienen</t>
-  </si>
-  <si>
     <t>kann es sein das mit diesem so drigenden pcrtest-scheiss in wahrheit bereits nano-chips inplantiert werden? die wollen ja so dringend direkt dein personalausweis. so können sie direkt dein körper mit dem perso verbinden. top. wenn du positiv bist, können sie dich gleich einsammeln</t>
   </si>
   <si>
@@ -884,39 +671,6 @@
   </si>
   <si>
     <t>AFD sind Berufspolitiker und gesteuerte Zionisten. Kontrollierte Opposition</t>
-  </si>
-  <si>
-    <r>
-      <t>irgendein</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Plan steckt hinter der Pandemie</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>auch: inszenierte "Pandemie" (Bilder von vollen Krankenhäusern u.ä. zeigen lediglich bezahlte Schauspieler; Prominente werden dafür bezahlt, zu behaupten, sie seien erkrankt; Impfungen werden vorgetäuscht)</t>
-    </r>
   </si>
   <si>
     <t>Bereits das indirekte Andeuten die Juden/Zionisten seihen Schuld an Corona bzw. der Holocaust war möglicherweise nicht so wie erzählt, führt zu Strafverfolgung, Freundschaften, Familien zerbrechen. Ich sage es sind die internationalen Konzerne um es politisch korrekt zu sagen. Was ist wenn ALLE internationalen Kapitalgesellschaften eigentlich Jahrhunderte alte jüdisch geschaffene Golems sind welche auf die Befehle der Rabbis hören ? Boykottiert die Golems findet die Befehlsgeber...</t>
@@ -1164,9 +918,6 @@
     <t>QAnon, Evangelikale</t>
   </si>
   <si>
-    <t>kritische Stimmen werden unterdrückt / unsichtbar gemacht; wirklich freie Meinungsäußerung ist nicht mehr möglich</t>
-  </si>
-  <si>
     <t>eng verwandt mit "Great Reset"</t>
   </si>
   <si>
@@ -1176,9 +927,6 @@
     <t>Great Reset</t>
   </si>
   <si>
-    <t>Pandemie dient der Erlangung politischer/wirtschaftlicher Weltkontrolle durch globale Finanzeliten, vertreten u.a. durch das Weltwirtschaftsforum und Klaus Schwab; Bevölkerung soll enteignet und kontrolliert, die Gesellschaft nach kommunistischem Vorbild umstrukturiert werden</t>
-  </si>
-  <si>
     <t>Akteure</t>
   </si>
   <si>
@@ -1314,9 +1062,6 @@
     <t>Institutionsskepsis</t>
   </si>
   <si>
-    <t>Pandemie/Lockdown dient der Kontrolle/Überwachung der Bevölkerung durch Regierung</t>
-  </si>
-  <si>
     <t>Kontrolle (allgemein)</t>
   </si>
   <si>
@@ -1369,13 +1114,238 @@
   </si>
   <si>
     <t>Maßnahmenkritik, Massenvernichtung</t>
+  </si>
+  <si>
+    <t>Corona ist viel gefährlicher, als offizielle Stellen behaupten. Die potentiellen Auswirkungen des Virus werden heruntergespielt, um die Bevölkerung nicht zu beunruhigen.</t>
+  </si>
+  <si>
+    <t>Man muss keine Angst vor Corona haben. Vom Coronavirus geht keine oder zumindest keine große Gefahr aus. Corona ist nicht schlimmer als eine gewöhnliche Grippe. Der Höhepunkt der Pandemie ist längst überschritten.</t>
+  </si>
+  <si>
+    <t>Die Existenz des Coronavirus ist nicht belegt. Corona gibt es nicht.</t>
+  </si>
+  <si>
+    <t>Wichtige Stimmen und Entscheidungsträger in der Pandemie, wie Gesundheitsminister Jens Spahn, RKI-Präsident Lothar Wieler oder der Virologe Christian Drosten, sind keine echten Experten. Sie sind entweder fachfremd oder inkompetent. Schon ihre akademische Qualifikation ist zweifelhaft.</t>
+  </si>
+  <si>
+    <t>Die Strahlung des neuen 5G-Netzes ist schädlich für Menschen. Sie schwächt das Immunsystem, schädigt menschliche Zellen und macht Menschen anfälliger für COVID-19.</t>
+  </si>
+  <si>
+    <t>Die staatlichen Maßnahmen zur Eindämmung der Pandemie sind nicht mit dem Grundgesetz vereinbar und deshalb illegal. Der Staat operiert ohne gültige Rechtsgrundlage und verfassungswidrig. Grundrechte und Menschenrechte der Bürger werden durch Maskenpflicht, Lockdowns und weitere Maßnahmen systematisch verletzt.</t>
+  </si>
+  <si>
+    <t>Menschen, die sich den Maßnahmen der Regierung widersetzen, indem sie keine Masken tragen, sich nicht testen oder gegen Corona impfen lassen, werden aus der Gesellschaft ausgegrenzt. Damit werden Maßnahmenkritiker und Impfskeptiker als Bürger zweiter Klasse systematisch diskriminiert. Eine Impf-Apartheit droht.</t>
+  </si>
+  <si>
+    <t>Corona-Tests und/oder Masken sind gefährlich. Der Stoff der Masken und  Teststäbchen enthält Morgellons (bewegliche schwarze Fäden) oder andere Krankheitserreger und Schadstoffe. Tests und Masken machen krank. In Krankenhäusern sterben die Leute nicht am Coronavirus, sondern wegen der Beatmungsgeräte.</t>
+  </si>
+  <si>
+    <t>Die psychischen und physischen Belastungen durch Lockdown, Maskenpflicht, Tests, Schulschließungen, Geschäftsschließungen usw. sind gravierender als die Gefahr, die von Corona ausgeht. Kinder leiden besonders stark unter den Maßnahmen zur Eindämmung der Pandemie.</t>
+  </si>
+  <si>
+    <t>Die Einnahme oder Injektion von Bleich- oder Desinfektionsmitteln (wie Chlordioxid, CDL, CDS, MMS usw.) tötet das Coronavirus im Körper ab und ist deshalb ein wirksames Gegenmittel.</t>
+  </si>
+  <si>
+    <t>Es gibt wirksame, günstige und weniger schädliche Gegenmittel und Impfstoffe gegen Corona, die von Medien und Politik verschwiegen werden. Alternative Heilmittel gegen COVID-19 und/oder ein klassischer Totimpfstoff werden uns absichtlich vorenthalten.</t>
+  </si>
+  <si>
+    <t>Diverse einfache Mittel helfen gegen COVID-19, u.a. Vitamine, Heißluft, Knoblauch, Zwiebeln, Alkohol, Zistrosenextrakt, Kuhdung, Kuhurin oder Räucherstäbchen. Das Coronavirus lässt sich homöopathisch wirksam behandeln (z.B. mit Nosoden, Globuli oder Arsenicum album C30).</t>
+  </si>
+  <si>
+    <t>Bewährte Medikamente wie Chloroquin/Hydroxychloroquin, Azithromycin oder Ivermectin helfen auch gegen COVID-19.</t>
+  </si>
+  <si>
+    <t>Das Coronavirus ist künstlicher Herkunft, also menschengemacht. COVID-19 wurde in einem Labor gezüchtet, beispielsweise in Wuhan.</t>
+  </si>
+  <si>
+    <t>Die Pandemie wird durch Ausländer (wie Chinesen), Migranten, Asylbewerber und/oder Muslime eingeschleppt und verbreitet. Diese halten sich nicht an die Pandemiebestimmungen und sind besonders gefährlich.</t>
+  </si>
+  <si>
+    <t>Für die Herstellung neuartiger mRNA-Impfstoffe gegen das Coronavirus (wie von BioNTech oder Moderna) werden menschliche Embryonen oder abgetriebene Föten benutzt.</t>
+  </si>
+  <si>
+    <t>Die Impfung gegen COVID-19 ist nicht ausreichend getestet worden und deshalb nicht sicher. Mögliche Langzeitschäden durch die Impfung lassen sich nicht ausschließen. Die Impfkampagne ist damit ein unkontrollierter Menschenversuch, der uns zu Versuchskaninchen macht.</t>
+  </si>
+  <si>
+    <t>Die offizielle Darstellung der sogenannten Pandemie ist unberechtigte Panikmache. Die Virusverbreitung ist viel geringer als offiziell angegeben. Die Zahlen zur Anzahl der Infektionen und der Toten sind falsch und viel höher als in Wirklichkeit. Der Kurs der schwedischen Regierung im Umgang mit der "Pandemie", der schwedische Sonderweg, ist ausreichend. Die Corona-Tests sind extrem unzuverlässig und damit wertlos und irreführend.</t>
+  </si>
+  <si>
+    <t>Die Impfung enthält Graphenoxid, einen schädlichen Zusatzstoff, der das Immunsystem schwächt oder Menschen direkt krank macht. Der Bereich um die Einstichstelle am Oberarm wird durch das Graphenoxid in Folge der Impfung magnetisch.</t>
+  </si>
+  <si>
+    <t>Die Bevölkerung soll zur Impfung gezwungen werden. Der Staat wird eine Zwangsimpfung einführen.</t>
+  </si>
+  <si>
+    <t>Die negativen Auswirkungen der Impfung können sich über den Ausstoß des Spike-Proteins des Coronavirus bei Geimpften durch Kontakt (wie Husten, Muttermilch oder Geschlechtsverkehr) auf Ungeimpfte übertragen. Impfstoff-Shedding führt zu Krankheit oder Unfruchtbarkeit bei Ungeimpften.</t>
+  </si>
+  <si>
+    <t>Die Coronapandemie ist ein indirekter Angriff eines Staates (z.B. China) auf einen oder mehrere andere Staaten. COVID-19 dient einer Nation dazu, Einfluss auf die Politik in anderen Nationen zu nehmen oder diese zu destabilisieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Impfung gegen COVID-19 ist sehr gefährlich für den Menschen. Sie zerstört das Immunsystem, das Lungengewebe, führt zu Autoimmunerkrankungen oder wirkt sich anderweitig extrem schädlich aus, bis hin zum Tod. Schädliche Nanopartikel der mRNA-Impfung verteilen sich im Körper und gelangen in die Organe. </t>
+  </si>
+  <si>
+    <t>Die Impfung macht unfruchtbar. Die Antikörper gegen das Spike-Protein des Coronavirus, die sich nach der Impfung bilden, richten sich auch gegen das ähnliche Protein Syncytin-1, das eine entscheidende Rolle bei der Bildung der Plazenta spielt; dies führt zur Unfruchtbarkeit.</t>
+  </si>
+  <si>
+    <t>Die neuartigen mRNA-Impfstoffe verändern das menschliche Erbgut. Die Impfung führt zu Genmutationen bei den Geimpften.</t>
+  </si>
+  <si>
+    <t>Die Pandemie dient dem Profit und der Marktdominanz von Großkonzernen und mächtigen Einzelpersonen oder versteckten Eliten.</t>
+  </si>
+  <si>
+    <t>Die Pandemie dient dazu, der deutschen Wirtschaft und hiesigen Unternehmern zu schaden. Die Wirtschaft wird durch die Maßnahmen zur Bekämpfung der Pandemie absichtlich zerstört.</t>
+  </si>
+  <si>
+    <t>Die Pandemie dient der Durchsetzung von Klimaschutzzielen, indem der Auto- und Flugverkehr und die damit verbundenen Emissionen eingeschränkt werden. Die Angst vor Zoonosen wird ausgenutzt, um die Ziele der Anti-Fleisch-Agenda voranzutreiben.</t>
+  </si>
+  <si>
+    <t>Hinter der Pandemie steckt in Wahrheit Big Pharma (oder aber die Pharmaindustrie steckt zumindest mit den eigentlichen Drahtziehern unter einer Decke). Impfungen und Tests sorgen für Milliardengewinne für die Pharmaindustrie und sollen möglichst oft wiederholt werden.</t>
+  </si>
+  <si>
+    <t>Israel, Zionisten, die Rothschilds oder die Juden stecken in Wahrheit hinter der Pandemie.</t>
+  </si>
+  <si>
+    <t>Das Coronavirus oder die Impfung ist in Wirklichkeit eine Biowaffe.</t>
+  </si>
+  <si>
+    <t>Die Pandemie dient in Wirklichkeit nur dazu, von anderen Skandalen oder Vorgängen abzulenken, beispielsweise dem Zusammenbruch des Finanzsystems.</t>
+  </si>
+  <si>
+    <t>Die Pandemie dient in der Wirklichkeit der Umsetzung des Great Reset, also der Erlangung politischer oder wirtschaftlicher Weltkontrolle durch globale Finanzeliten, vertreten u.a. durch das Weltwirtschaftsforum und Klaus Schwab.</t>
+  </si>
+  <si>
+    <t>Es wird Technologie eingesetzt, die die Gedanken oder das Verhalten von Menschen kontrolliert oder überwacht.</t>
+  </si>
+  <si>
+    <t>Das private Vermögen, das Eigentum, Besitztümer oder Geschäfte der Bevölkerung sollen zerstört, enteignet, verstaatlicht oder umverteilt werden, entweder um die Gesellschaft nach kommunistischem Vorbild wie in der DDR umzustrukturieren, oder um das private Eigentum der Bevölkerung an die großen Konzerne umzuverteilen.</t>
+  </si>
+  <si>
+    <t>Die Medien oder der Mainstream lügen die Bevölkerung an, sie verschweigen Wahrheiten und Zahlen oder betreiben Gehirnwäsche.</t>
+  </si>
+  <si>
+    <t>Die Pandemie (COVID1984) und der Lockdown dienen der Regierung dazu, die Bevölkerung zu kontrollieren und zu überwachen. Die Corona-App dient nicht dazu, die Benutzer sicherer zu machen, sondern dazu, sie auf Schritt und Tritt zu überwachen. ID2020, ein Bündnis aus der Impfallianz Gavi, der Rockefeller-Stiftung, Microsoft und weiteren Unternehmen, strebt globale Überwachung an, indem digitale Impfausweise mit biometrischen und anderen persönlichen Daten kombiniert werden sollen.</t>
+  </si>
+  <si>
+    <t>Mit der Impfung gegen Corona oder über die Corona-Tests werden den Menschen Mikrochips oder Nanobots injiziert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Coronavirus, die Maßnahmen zur Bekämpfung der Pandemie und/oder die Impfung dienen dazu, die Weltbevölkerung zu reduzieren, um der Überbevölkerung entgegenzuwirken. Unter dem Vorwand der Pandemie sollen gezielt unerwünschte Bevölkerungsteile wie alte Menschen, Arbeitslose oder Sozialhilfeempfänger reduziert werden. </t>
+  </si>
+  <si>
+    <t>In Wirklichkeit hat Bill Gates das Coronavirus entwickeln lassen oder ist zumindest in die vorsätzliche Verbreitung von COVID-19 verwickelt. Bill Gates kontrolliert die WHO und/oder die Pharmaindustrie und profitiert von der Pandemie.</t>
+  </si>
+  <si>
+    <t>Eine geheime Elite aus Politik und Wirtschaft plant die NWO (neue Weltordnung, New World Order), die den Umsturz der derzeitigen Politik-, Wirtschafts- und Gesellschaftsverhältnisse erfordert. Die NWO zielt darauf ab, die Souveränität der Nationalstaaten abzuschaffen und eine zentrale, totalitäre Weltregierung zu installieren.</t>
+  </si>
+  <si>
+    <t>Eine Geheimbund wie die Freimaurer, Illuminaten oder Rosenkreuzer hat weltweit Politik und Wirtschaft infiltriert und lenkt im Verborgenen Regierungen und das Weltgeschehen.</t>
+  </si>
+  <si>
+    <t>Die Schulmedizin oder westliche Medizin ist sehr fehlerhaft und sogar gefährlich. Alternativmedizinische Ansätze wie Entgiftung, Entschlackung, Homöopathie und Naturheilkunde sind wirksam und empfehlenswert. Grundsätzliche medizinische Annahmen wie die Existenz von Viren oder die Wirksamkeit von Impfungen sind wissenschaftlich nicht nachgewiesen oder komplett erlogen.</t>
+  </si>
+  <si>
+    <t>Deutschland ist kein souveräner Staat, sondern wird noch immer von den allierten Besatzungsmächten kontrolliert. Einen Friedensvertrag oder eine echte Verfassung gab es nie für die Bundesrepublik. Die SHAEF-Gesetze gelten weiterhin. Deutschland existiert rechtlich weiter in den Grenzen des Deutschen Reichs. Die BRD GmbH ist eine Firma, die nach dem Zweiten Weltkrieg installiert wurde, um Gewinne für die westlichen Siegermächte zu erwirtschaften, primär für die USA. Die Bundesregierung ist lediglich die Geschäftsführung der BRD GmbH. Deutsche Politiker, Richter, Beamte und Staatsangestellte inszenieren die staatliche Souveränität der Firma BRD GmbH oder Germoney nur.</t>
+  </si>
+  <si>
+    <t>NWO</t>
+  </si>
+  <si>
+    <r>
+      <t>Der menschengemachte Klimawandel ist nicht real, sondern eine große Lüge. Wenn es überhaupt Klimawandel gibt, so ist er nicht menschengemacht und rechtfertigt keine Hysterie; natürlichen Klimawandel gab es im Laufe der Geschichte immer wieder. Es gibt eine Anti-CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Mafia. Greta Thunberg ist eine bezahlte Hochstaplerin. CO2 ist nicht schädlich, sondern gut. Die Klimapolitik ist Teil einer links-grünen Verschwörung gegen die Bevölkerung und deren Eigentum. Politiker betreiben Klimapolitik aus Profitgier.</t>
+    </r>
+  </si>
+  <si>
+    <t>Es gibt einen geheimen Plan namens großer Austausch oder Bevölkerungsaustausch, in dem es darum geht, die weiße, christliche oder europäische Bevölkerung mit anderen Menschen auszutauschen oder sie zu vernichten, indem man leichter zu kontrollierende Muslime oder Afrikaner nach Europa holt.</t>
+  </si>
+  <si>
+    <t>Kondensstreifen von Flugzeugen sind in Wirklichkeit Chemtrails, absichtlich freigesetzte Chemikalien. Chemtrails dienen dazu, die Bevölkerung krank zu machen, sie zu manipulieren oder das Wetter oder Klima zu kontrollieren (im Verbund mit HAARP).</t>
+  </si>
+  <si>
+    <t>Öffentlich wirksame Ereignisse wie die Anschläge auf das World Trade Center (9/11), das Massaker von Butscha u.ä. sind in Wirklichkeit False-Flag-Operationen, also Inzenierungen vom vermeintlichen Opfer oder von anderen, um in der Öffentlichkeit den vermeintlichen Täter dafür verantwortlich zu machen.</t>
+  </si>
+  <si>
+    <t>Bargeld und nicht zurückverfolgbares Geld sollen abgeschafft werden.</t>
+  </si>
+  <si>
+    <t>Ausländer, Juden, Muslime, Nicht-Weiße, Homosexuelle, Behinderte, Frauen, Gutmenschen, Linke oder andere Gruppen sind minderwertig, unmoralisch und/oder gefährlich. Weiße sind anderen Rassen überlegen. Das Land ist überfremdet. Flüchtlinge sind kriminell und Sozialschmarotzer. Horden muslimischer Flüchtlinge bedrohen Europa. Die traditionelle Familie aus Vater, Mutter, Kind soll zerstört werden. Kinder sollen frühsexualisiert werden. Ausländer achten unsere Kultur und Gesetze nicht. Politiker wie Merkel sind Volksverräter. Der Zweite Weltkrieg war nicht so, wie ihn die Geschichtsschreibung darstellt. Deutsche haben im Zweiten Weltkrieg besonders gelitten; Städte wurden von den Allierten ausgebombt, Frauen wurden vergewaltigt, Familien aus ihrer angestammten Heimat vertrieben. Aktionen von Black Lives Matter (BLM) und der Antifa kosten viele Leben.</t>
+  </si>
+  <si>
+    <t>Eliten in Politik und Wirtschaft sind Satanisten oder vom Teufel beeinflusst oder arbeiten heimlich gegen das Christentum.</t>
+  </si>
+  <si>
+    <t>Ein internationaler Kinderhändlerring unter Beteiligung von Prominenten aus Politik und Hollywood sowie von bekannten Organisationen entführt Kinder und beutet sie sexuell aus. Entführte Kinder werden in unterirdischen Anlagen gefangengehalten, gefoltert oder ermordet, um Adrenochrom zu gewinnen, das als Verjüngungsserum der Eliten fungiert.</t>
+  </si>
+  <si>
+    <t>Q, ein anonymer Patriot mit Zugang zu streng geheimen Informationen der US-Regierung, teilt chiffrierte Informationen, Einschätzungen und Ankündigungen über Q-Drops mit Gleichgesinnten. Präsident Donald Trump ist der Auserwählte, der im Verborgenen gegen eine weltweit agierende finstere Elite vorgeht. Trump hat einen geheimen Plan, dem man vertrauen soll; er spielt 5D-Schach mit seinen Gegnern. WWG1WGA.</t>
+  </si>
+  <si>
+    <t>Ein großer Teil der Bevölkerung ist gehirngewaschen und hat keine Ahnung, was wirklich in der Welt vor sich geht. Schlafschafe lassen sich von den Medien blenden und erdulden alles wie brave Schafe, anstatt sich zu wehren.</t>
+  </si>
+  <si>
+    <t>Der Tag des großen Umsturzes, der großen Veränderung oder der Abrechnung steht bevor. Auch wenn es nicht so aussieht, verläuft alles nach Plan, und die Dinge werden sich bald zum Guten wenden. Ein großes Ereignis steht unmittelbar bevor, das alles verändern wird. Am Tag X wird das Volk sich erheben, die Regierung stürzen und zur Rechenschaft ziehen.</t>
+  </si>
+  <si>
+    <t>Die Wahlen sind nicht sicher und werden im großen Stil manipuliert.</t>
+  </si>
+  <si>
+    <t>Es gibt eine versteckte Machtstrukturen innerhalb des Staates, den tiefen Staat, Tiefstaat, Deep State (DS) oder Staat im Staate, der heimlich die Politik lenkt.</t>
+  </si>
+  <si>
+    <t>Deutschland ist kein Rechtsstaat, sondern eine Diktatur, in der politikgelenkte Korruption und juristische Willkür herrschen. Die Demokratie ist bereits zerstört und eine Diktatur errichtet worden, oder die Demokratie und der Rechtsstaat sollen zerstört und durch eine Diktatur oder Scheindemokratie, eine Demokratur, ersetzt werden.</t>
+  </si>
+  <si>
+    <t>Eine Person oder Gruppe handelt vorgeblich aus freiem Antrieb, ist in Wahrheit aber ein Systemling, der vom System oder Staat gesteuert und bezahlt wird.</t>
+  </si>
+  <si>
+    <t>Die Medien oder der Mainstream werden von einer Gruppe oder der Politik kontrolliert und gesteuert. Die Öffentlichkeit wird systematisch von einer mächtigen Gruppe in die Irre geführt, die steuern kann, welche Informationen an die Öffentlichkeit kommen. Bestimmte Informationen werden von den Medien unterdrückt oder zensiert. Es gibt keine Pressefreiheit.</t>
+  </si>
+  <si>
+    <t>Kritische Stimmen werden im öffentlichen Diskurs und in sozialen Medien unterdrückt oder unsichtbar gemacht. Es herrscht eine Meinungsdiktatur, ein gesellschaftlicher Druck, nur erwünschte Meinungen überhaupt zu äußern. Bei freier Meinungsäußerung drohen ernste Konsequenzen; die Redefreiheit wird unterdrückt.</t>
+  </si>
+  <si>
+    <t>Es gibt Engel, Einstellungen, Heilkristalle, Gebete, Schwingungs- und Lichttherapien, die bei Erkrankungen helfen. Impfungen können ausgetrieben werden. Alles ist Schwingung.</t>
+  </si>
+  <si>
+    <t>Die Pandemie ist eine Plandemie. Ein geheimer Plan steckt hinter der Pandemie. Im Hintergrund geht es nicht um die Bekämpfung eines Virus, sondern um etwas ganz anderes. Die sogenannte "Pandemie" ist lediglich medial inszeniert. Bilder von vollen Krankenhäusern u.ä. zeigen lediglich bezahlte Schauspieler, Prominente werden dafür bezahlt, zu behaupten, sie seien erkrankt, Impfungen werden vorgetäuscht.</t>
+  </si>
+  <si>
+    <t>Coronaverharmlosung</t>
+  </si>
+  <si>
+    <t>Gefährlichkeit der Impfung</t>
+  </si>
+  <si>
+    <t>Coronaverschwörung</t>
+  </si>
+  <si>
+    <t>Alternative Gegenmittel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1402,13 +1372,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1419,11 +1382,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="29">
@@ -2238,14 +2203,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="129">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2323,43 +2288,43 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="27" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="27" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="27" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="27" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="27" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="27" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="28" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="28" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2514,17 +2479,23 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3828,10 +3799,8 @@
   <dimension ref="A1:IT64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3839,10 +3808,10 @@
     <col min="1" max="1" width="23.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.44140625" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" style="2" customWidth="1"/>
     <col min="5" max="6" width="20.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" style="1"/>
     <col min="11" max="11" width="16.33203125" style="2" customWidth="1"/>
@@ -3863,10 +3832,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>4</v>
@@ -3878,1799 +3847,1799 @@
         <v>6</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
-        <v>171</v>
+      <c r="A2" s="98" t="s">
+        <v>110</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="H2" s="74"/>
       <c r="I2" s="42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="31"/>
       <c r="K2" s="6" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
-      <c r="B3" s="110" t="s">
-        <v>167</v>
+      <c r="A3" s="99"/>
+      <c r="B3" s="112" t="s">
+        <v>371</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>8</v>
+        <v>308</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="75"/>
       <c r="I3" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="7" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="62" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>153</v>
+        <v>309</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="G4" s="44"/>
       <c r="H4" s="76"/>
       <c r="I4" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="8" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
-      <c r="B5" s="110"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="H5" s="76"/>
       <c r="I5" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="63" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="45" t="s">
-        <v>114</v>
+        <v>310</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="H6" s="77"/>
       <c r="I6" s="45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="55" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
       <c r="I7" s="42" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="10" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="107" t="s">
-        <v>14</v>
+      <c r="A8" s="99"/>
+      <c r="B8" s="109" t="s">
+        <v>305</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="H8" s="75"/>
       <c r="I8" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>350</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="65" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="F9" s="88" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="H9" s="75"/>
       <c r="I9" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="62" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="H10" s="76"/>
       <c r="I10" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="97"/>
-      <c r="B11" s="109"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="66" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>135</v>
+        <v>315</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="G11" s="86" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="H11" s="78"/>
       <c r="I11" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="13" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="105" t="s">
-        <v>169</v>
+      <c r="A12" s="99"/>
+      <c r="B12" s="107" t="s">
+        <v>374</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="106"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="62" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="G13" s="76"/>
       <c r="H13" s="76"/>
       <c r="I13" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="33"/>
       <c r="K13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="106"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="62" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H14" s="76"/>
       <c r="I14" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97"/>
-      <c r="B15" s="106"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="66" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="H15" s="78"/>
       <c r="I15" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="99" t="s">
-        <v>296</v>
+      <c r="A16" s="99"/>
+      <c r="B16" s="101" t="s">
+        <v>231</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="G16" s="80"/>
       <c r="H16" s="79"/>
       <c r="I16" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="15" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="97"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="66" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="E17" s="89" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="F17" s="89" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="H17" s="78" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="102" t="s">
-        <v>147</v>
+      <c r="A18" s="99"/>
+      <c r="B18" s="104" t="s">
+        <v>372</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>27</v>
+        <v>322</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H18" s="80" t="s">
-        <v>353</v>
+        <v>286</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="93"/>
+        <v>8</v>
+      </c>
+      <c r="J18" s="92"/>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="103"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="62" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" s="33"/>
       <c r="K19" s="3" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="103"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="62" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="62" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>129</v>
+        <v>325</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="12" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="97"/>
-      <c r="B22" s="103"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="62" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="E22" s="90" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="F22" s="90" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="3" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="103"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="62" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>39</v>
+        <v>326</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="103"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="62" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D24" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="44" t="s">
-        <v>215</v>
-      </c>
       <c r="F24" s="44" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="3" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="98"/>
-      <c r="B25" s="104"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="66" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="112" t="s">
-        <v>170</v>
+      <c r="A26" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="114" t="s">
+        <v>373</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="92" t="s">
-        <v>246</v>
+        <v>86</v>
+      </c>
+      <c r="D26" s="97" t="s">
+        <v>370</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="101"/>
-      <c r="B27" s="113"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="62" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>121</v>
+        <v>332</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="H27" s="76"/>
       <c r="I27" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101"/>
-      <c r="B28" s="113"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="62" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>49</v>
+        <v>333</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="G28" s="87" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="H28" s="76"/>
       <c r="I28" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="101"/>
-      <c r="B29" s="113"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="62" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>120</v>
+        <v>334</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
       <c r="H29" s="76"/>
       <c r="I29" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="101"/>
-      <c r="B30" s="113"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="62" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>229</v>
+        <v>335</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="H30" s="76"/>
       <c r="I30" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="101"/>
-      <c r="B31" s="113"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="62" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>53</v>
+        <v>336</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="G31" s="76" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="101"/>
-      <c r="B32" s="113"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="62" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>55</v>
+        <v>337</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="H32" s="44"/>
       <c r="I32" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="101"/>
-      <c r="B33" s="113"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="62" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>57</v>
+        <v>328</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="101"/>
-      <c r="B34" s="113"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="62" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="H34" s="76"/>
       <c r="I34" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="101"/>
-      <c r="B35" s="113"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="62" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>92</v>
+        <v>338</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="G35" s="87" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="H35" s="76"/>
       <c r="I35" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35" s="35"/>
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="101"/>
-      <c r="B36" s="113"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="62" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="H36" s="76"/>
       <c r="I36" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="101"/>
-      <c r="B37" s="113"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="62" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>141</v>
+        <v>345</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="H37" s="76"/>
       <c r="I37" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J37" s="33"/>
       <c r="K37" s="17" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="101"/>
-      <c r="B38" s="113"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="62" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>242</v>
+        <v>344</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="H38" s="76"/>
       <c r="I38" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="101"/>
-      <c r="B39" s="114"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="66" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>65</v>
+        <v>346</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="G39" s="46" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="H39" s="46"/>
       <c r="I39" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="120" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" s="115" t="s">
-        <v>297</v>
+      <c r="A40" s="122" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="117" t="s">
+        <v>232</v>
       </c>
       <c r="C40" s="68" t="s">
-        <v>67</v>
+        <v>351</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>119</v>
+        <v>347</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="H40" s="81" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I40" s="48" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J40" s="37" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>307</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="116"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="118"/>
       <c r="C41" s="69" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>117</v>
+        <v>348</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="G41" s="49" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="H41" s="49"/>
       <c r="I41" s="49" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J41" s="38" t="s">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="121"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="118"/>
       <c r="C42" s="69" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>115</v>
+        <v>340</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="F42" s="49" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="H42" s="49"/>
       <c r="I42" s="49" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J42" s="38" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="121"/>
-      <c r="B43" s="116"/>
+      <c r="A43" s="123"/>
+      <c r="B43" s="118"/>
       <c r="C43" s="69" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="H43" s="49"/>
       <c r="I43" s="49" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J43" s="38"/>
       <c r="K43" s="25" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="121"/>
-      <c r="B44" s="116"/>
+      <c r="A44" s="123"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="69" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>104</v>
+        <v>355</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="G44" s="49" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="H44" s="49"/>
       <c r="I44" s="49" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J44" s="38" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="K44" s="25"/>
     </row>
     <row r="45" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="121"/>
-      <c r="B45" s="116"/>
+      <c r="A45" s="123"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="69" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>103</v>
+        <v>356</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="H45" s="49"/>
       <c r="I45" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="J45" s="94" t="s">
-        <v>333</v>
+        <v>90</v>
+      </c>
+      <c r="J45" s="93" t="s">
+        <v>266</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="121"/>
-      <c r="B46" s="117"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="123"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="70" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>269</v>
+        <v>205</v>
+      </c>
+      <c r="F46" s="95" t="s">
+        <v>204</v>
       </c>
       <c r="G46" s="50"/>
       <c r="H46" s="50"/>
       <c r="I46" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="J46" s="95" t="s">
-        <v>333</v>
+        <v>90</v>
+      </c>
+      <c r="J46" s="94" t="s">
+        <v>266</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="121"/>
-      <c r="B47" s="118" t="s">
-        <v>89</v>
+      <c r="A47" s="123"/>
+      <c r="B47" s="120" t="s">
+        <v>68</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>123</v>
+        <v>358</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H47" s="48" t="s">
-        <v>305</v>
+        <v>240</v>
       </c>
       <c r="I47" s="48" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J47" s="37"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="121"/>
-      <c r="B48" s="118"/>
+    <row r="48" spans="1:11" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="123"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="69" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="F48" s="49" t="s">
-        <v>292</v>
+        <v>360</v>
+      </c>
+      <c r="E48" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="F48" s="96" t="s">
+        <v>227</v>
       </c>
       <c r="G48" s="49"/>
       <c r="H48" s="49" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I48" s="49" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J48" s="38"/>
       <c r="K48" s="21" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="121"/>
-      <c r="B49" s="118"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="71" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="D49" s="91" t="s">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="E49" s="91" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="F49" s="91" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="G49" s="51" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H49" s="51" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I49" s="51" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J49" s="39"/>
       <c r="K49" s="23"/>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="121"/>
-      <c r="B50" s="119" t="s">
-        <v>298</v>
+      <c r="A50" s="123"/>
+      <c r="B50" s="121" t="s">
+        <v>233</v>
       </c>
       <c r="C50" s="68" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>122</v>
+        <v>353</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="H50" s="48" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I50" s="48" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J50" s="37" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="121"/>
-      <c r="B51" s="119"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="123"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="70" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>278</v>
+        <v>212</v>
+      </c>
+      <c r="F51" s="95" t="s">
+        <v>213</v>
       </c>
       <c r="G51" s="50"/>
       <c r="H51" s="50" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="I51" s="50" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J51" s="39" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="122" t="s">
-        <v>87</v>
+      <c r="A52" s="124" t="s">
+        <v>66</v>
       </c>
       <c r="B52" s="56" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C52" s="72" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="E52" s="52" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="F52" s="52" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="G52" s="52"/>
       <c r="H52" s="52" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I52" s="52" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J52" s="40"/>
       <c r="K52" s="27" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="123"/>
+      <c r="A53" s="125"/>
       <c r="B53" s="57" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C53" s="72" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>106</v>
+        <v>352</v>
       </c>
       <c r="E53" s="52" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="F53" s="52" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="52" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="I53" s="52" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J53" s="40" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="123"/>
+      <c r="A54" s="125"/>
       <c r="B54" s="58" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="C54" s="72" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>140</v>
+        <v>361</v>
       </c>
       <c r="E54" s="52" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="F54" s="52" t="s">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="G54" s="52" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="H54" s="52"/>
       <c r="I54" s="52" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J54" s="40" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="123"/>
+      <c r="A55" s="125"/>
       <c r="B55" s="59" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C55" s="72" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="G55" s="52"/>
       <c r="H55" s="52" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I55" s="52" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J55" s="40"/>
       <c r="K55" s="27" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="123"/>
-      <c r="B56" s="124" t="s">
-        <v>299</v>
+      <c r="A56" s="125"/>
+      <c r="B56" s="126" t="s">
+        <v>234</v>
       </c>
       <c r="C56" s="68" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>146</v>
+        <v>363</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I56" s="48" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J56" s="37"/>
       <c r="K56" s="24" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="123"/>
-      <c r="B57" s="124"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="69" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>118</v>
+        <v>364</v>
       </c>
       <c r="E57" s="49" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="G57" s="49" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="H57" s="82" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I57" s="49" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J57" s="38" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="K57" s="25" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="123"/>
-      <c r="B58" s="124"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="126"/>
       <c r="C58" s="69" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>137</v>
+        <v>365</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="G58" s="49" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="H58" s="49"/>
       <c r="I58" s="49" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J58" s="38" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="K58" s="25"/>
     </row>
     <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="123"/>
-      <c r="B59" s="124"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="70" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>112</v>
+        <v>366</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="F59" s="50" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="G59" s="50" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="H59" s="50"/>
       <c r="I59" s="50" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J59" s="39"/>
       <c r="K59" s="26" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="123"/>
-      <c r="B60" s="125" t="s">
-        <v>300</v>
+      <c r="A60" s="125"/>
+      <c r="B60" s="127" t="s">
+        <v>235</v>
       </c>
       <c r="C60" s="68" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>110</v>
+        <v>342</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="G60" s="48" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="H60" s="48"/>
       <c r="I60" s="48" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J60" s="37" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="123"/>
-      <c r="B61" s="125"/>
+      <c r="A61" s="125"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="69" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>116</v>
+        <v>367</v>
       </c>
       <c r="E61" s="49" t="s">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="F61" s="49" t="s">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="G61" s="49" t="s">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="H61" s="83"/>
       <c r="I61" s="49" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="J61" s="38" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="K61" s="25"/>
     </row>
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="123"/>
-      <c r="B62" s="125"/>
+      <c r="A62" s="125"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="70" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D62" s="50" t="s">
-        <v>306</v>
+        <v>368</v>
       </c>
       <c r="E62" s="50" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="F62" s="50" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="G62" s="50" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="H62" s="50"/>
       <c r="I62" s="50" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="J62" s="39" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="K62" s="26"/>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="123"/>
-      <c r="B63" s="126" t="s">
-        <v>301</v>
+      <c r="A63" s="125"/>
+      <c r="B63" s="128" t="s">
+        <v>236</v>
       </c>
       <c r="C63" s="68" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>97</v>
+        <v>369</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="G63" s="48"/>
       <c r="H63" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I63" s="48" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J63" s="37"/>
       <c r="K63" s="24"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="123"/>
-      <c r="B64" s="126"/>
+      <c r="A64" s="125"/>
+      <c r="B64" s="128"/>
       <c r="C64" s="73" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>132</v>
+        <v>349</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="F64" s="53" t="s">
-        <v>267</v>
+        <v>202</v>
       </c>
       <c r="G64" s="53"/>
       <c r="H64" s="53" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I64" s="53" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J64" s="39" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K64" s="26" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
